--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4D29A-6647-4478-953B-A114D8FBFB20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BBA7D-12C0-44C1-BB14-A593D23468B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lugar" sheetId="1" r:id="rId1"/>
+    <sheet name="Hitorial" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Longitud</t>
   </si>
@@ -51,6 +52,27 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Venado01.jpg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Puntas</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Venado02.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Venado03.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Venado04.jpg</t>
   </si>
 </sst>
 </file>
@@ -95,9 +117,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -413,29 +437,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541597E-299E-4EF1-9359-062896972053}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27.332612000000001</v>
+      </c>
+      <c r="C2">
+        <v>-99.971406999999999</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{973F0AFC-8665-48C1-B0BB-772C4A294C05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015783C7-C4DE-4F82-B5F7-76C8B6049991}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -443,24 +525,85 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>27.332612000000001</v>
-      </c>
-      <c r="B2">
-        <v>-99.971406999999999</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43476</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43477</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{973F0AFC-8665-48C1-B0BB-772C4A294C05}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{E30A8C0A-AF52-4741-B4E1-F2B6A56F61BE}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{50D70818-92BD-4FD4-B21A-0334EC506F0C}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{91B35FB5-8FE9-44F3-9407-F645A23B86B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BBA7D-12C0-44C1-BB14-A593D23468B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94073F6-DC4A-4179-99A1-A1CB77966CF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Longitud</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Venado04.jpg</t>
+  </si>
+  <si>
+    <t>img-stand</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Stand01.jpg</t>
+  </si>
+  <si>
+    <t>img-comedero</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Comedero01.jpg</t>
   </si>
 </sst>
 </file>
@@ -437,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541597E-299E-4EF1-9359-062896972053}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,7 +460,7 @@
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -465,10 +477,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,13 +500,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{973F0AFC-8665-48C1-B0BB-772C4A294C05}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94073F6-DC4A-4179-99A1-A1CB77966CF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2712A958-E314-4DFC-9036-CE84096F3C21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2712A958-E314-4DFC-9036-CE84096F3C21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B9B70-5DDA-4DA4-8CA9-4A5181D2E7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Longitud</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>No recuerdo el Nombre</t>
-  </si>
-  <si>
     <t>Imagen</t>
   </si>
   <si>
@@ -85,6 +82,27 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/brauliovargas/Huisachito/master/img/Comedero01.jpg</t>
+  </si>
+  <si>
+    <t>Blind Los Conejos</t>
+  </si>
+  <si>
+    <t>Blind Diego</t>
+  </si>
+  <si>
+    <t>Rancho El Huisachito</t>
+  </si>
+  <si>
+    <t>Blind La Cuchillita</t>
+  </si>
+  <si>
+    <t>Blind Puertas Amarillas</t>
+  </si>
+  <si>
+    <t>Blind Cuatro caminos</t>
+  </si>
+  <si>
+    <t>Blind La Cuchilla</t>
   </si>
 </sst>
 </file>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541597E-299E-4EF1-9359-062896972053}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -477,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -488,22 +506,124 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27.332612000000001</v>
+        <v>27.319050000000001</v>
       </c>
       <c r="C2">
-        <v>-99.971406999999999</v>
+        <v>-99.989744166666597</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>27.35455</v>
+      </c>
+      <c r="C3">
+        <v>-99.937733333333298</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>27.3187444</v>
+      </c>
+      <c r="C4">
+        <v>-99.966144444444396</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="B5">
+        <v>27.3271278</v>
+      </c>
+      <c r="C5">
+        <v>-99.968694444444395</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>27.332599999999999</v>
+      </c>
+      <c r="C6">
+        <v>-99.958705555555497</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>27.335111099999999</v>
+      </c>
+      <c r="C7">
+        <v>-99.966255555555506</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>27.3191278</v>
+      </c>
+      <c r="C8">
+        <v>-99.986011111111097</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -523,19 +643,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -552,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -569,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -586,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -603,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">

--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B9B70-5DDA-4DA4-8CA9-4A5181D2E7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81EB0F8-E2FD-406A-90CA-67B7807B9574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" activeTab="1" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Longitud</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Blind La Cuchilla</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541597E-299E-4EF1-9359-062896972053}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -633,15 +642,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015783C7-C4DE-4F82-B5F7-76C8B6049991}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -655,10 +664,13 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,10 +684,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -688,11 +703,14 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -705,11 +723,14 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -722,23 +743,26 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{E30A8C0A-AF52-4741-B4E1-F2B6A56F61BE}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{50D70818-92BD-4FD4-B21A-0334EC506F0C}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{91B35FB5-8FE9-44F3-9407-F645A23B86B2}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{E30A8C0A-AF52-4741-B4E1-F2B6A56F61BE}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{50D70818-92BD-4FD4-B21A-0334EC506F0C}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{91B35FB5-8FE9-44F3-9407-F645A23B86B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81EB0F8-E2FD-406A-90CA-67B7807B9574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC1F93-0333-423B-B130-FEB77FCDEE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" activeTab="1" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Longitud</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Cap. Comedor (kg)</t>
+  </si>
+  <si>
+    <t>Cap. Stand (Personas)</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>Rancho</t>
   </si>
 </sst>
 </file>
@@ -476,18 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541597E-299E-4EF1-9359-062896972053}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -504,13 +521,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,14 +552,23 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,8 +584,17 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,8 +610,17 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -583,8 +636,17 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -600,8 +662,17 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -617,8 +688,17 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -633,6 +713,15 @@
       </c>
       <c r="E8" t="s">
         <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015783C7-C4DE-4F82-B5F7-76C8B6049991}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/El Huisachito.xlsx
+++ b/El Huisachito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9ECX2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC1F93-0333-423B-B130-FEB77FCDEE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4540DF2-61FF-4A05-909A-B32015E8AC57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4060" activeTab="1" xr2:uid="{C2A58FE8-9484-4E2D-9C96-CBA58BEA6D6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Longitud</t>
   </si>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541597E-299E-4EF1-9359-062896972053}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -731,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015783C7-C4DE-4F82-B5F7-76C8B6049991}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,13 +810,10 @@
         <v>0.75</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -835,23 +832,188 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43476</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43477</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43476</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43477</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{E30A8C0A-AF52-4741-B4E1-F2B6A56F61BE}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{50D70818-92BD-4FD4-B21A-0334EC506F0C}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{91B35FB5-8FE9-44F3-9407-F645A23B86B2}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{50D70818-92BD-4FD4-B21A-0334EC506F0C}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{91B35FB5-8FE9-44F3-9407-F645A23B86B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
